--- a/ftp_lib.xlsx
+++ b/ftp_lib.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Language</t>
   </si>
@@ -41,12 +41,219 @@
 cd ymyles                    //remotely change directory to ymyles
 put a.txt                        //update a.txt under current local directory to current remote directory</t>
   </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <r>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ftp 1?2.18.255.20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Connected to 172.18.255.20.
+200-QTCP at S657274B.
+200 Connection will close if idle more than 5 minutes. 
+User (172.18.255.20:(none)): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ZCSERUICE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+331 Enter password.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Password: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">xxxx
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0 ZCSERUICE logged on. 
+ftp&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD YMYLES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+250 ‘YMYLES’ is current library. 
+ftp&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PWD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+257 ‘YMYLES’ is current library..
+ftp&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LCD D:\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Local directory now D:\. 
+ftp&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PUT D:\20161205.TXT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+200 PORT subcommand request successful.
+150-Characters that are not recognized in file specification are changed to #.
+150 Sending file to member TXT in file 110161205 in library YMYLES.
+226 File transfer completed successfully.
+ftp: 1237 bytes sent in 0.27Seconds 4.67Mbytes/sec.
+ftp&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>quit</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +271,19 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -401,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -436,6 +656,17 @@
         <v>5</v>
       </c>
       <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="237">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
